--- a/src/main/resources/excel/2 Present Setence.xlsx
+++ b/src/main/resources/excel/2 Present Setence.xlsx
@@ -1035,20 +1035,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1261,16 +1257,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1278,10 +1274,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1289,10 +1285,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1300,10 +1296,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1311,10 +1307,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1322,10 +1318,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1333,10 +1329,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1344,10 +1340,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1355,10 +1351,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1390,16 +1386,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="48.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="72.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1407,10 +1403,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1418,10 +1414,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1429,10 +1425,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1440,10 +1436,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1451,10 +1447,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1462,10 +1458,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1473,10 +1469,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1484,10 +1480,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1495,10 +1491,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1506,10 +1502,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1517,10 +1513,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1528,10 +1524,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1539,10 +1535,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1550,10 +1546,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1561,40 +1557,40 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1621,16 +1617,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="31.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="36.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1638,10 +1634,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1649,10 +1645,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1660,10 +1656,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1671,10 +1667,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1682,10 +1678,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1693,10 +1689,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1704,10 +1700,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1715,10 +1711,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1726,10 +1722,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1737,10 +1733,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1772,16 +1768,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="47.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="60.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1789,10 +1785,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1800,10 +1796,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1811,10 +1807,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1822,10 +1818,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1833,10 +1829,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1844,10 +1840,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1855,10 +1851,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1866,10 +1862,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1877,10 +1873,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1888,10 +1884,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1899,10 +1895,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1910,10 +1906,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1921,10 +1917,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1932,10 +1928,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1943,48 +1939,48 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2011,16 +2007,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2028,10 +2024,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2039,10 +2035,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2050,10 +2046,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2061,10 +2057,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2072,10 +2068,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2083,10 +2079,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2094,10 +2090,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2105,10 +2101,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2116,10 +2112,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2127,10 +2123,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2138,10 +2134,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2173,16 +2169,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="56.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2190,10 +2186,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2201,10 +2197,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2212,10 +2208,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2223,10 +2219,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2234,10 +2230,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2245,10 +2241,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2256,10 +2252,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2267,10 +2263,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2278,10 +2274,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2289,10 +2285,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2300,10 +2296,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2311,10 +2307,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2322,10 +2318,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2333,10 +2329,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2368,16 +2364,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2385,10 +2382,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2396,10 +2393,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2407,10 +2404,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2418,10 +2415,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2429,10 +2426,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
